--- a/editing.xlsx
+++ b/editing.xlsx
@@ -166,20 +166,20 @@
     <xf applyProtection="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
     <xf applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
     </xf>
     <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -458,115 +458,115 @@
   <dimension ref="A1:CT55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="80">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="AQ14" xSplit="2" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="AV15" xSplit="2" ySplit="1"/>
       <selection activeCell="C1" pane="topRight" sqref="C1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="BG22" pane="bottomRight" sqref="BG22"/>
+      <selection activeCell="BT49" pane="bottomRight" sqref="BT49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="9.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="12" width="2"/>
-    <col customWidth="1" max="3" min="3" style="12" width="11.7109375"/>
-    <col customWidth="1" max="4" min="4" style="12" width="3.85546875"/>
-    <col customWidth="1" max="5" min="5" style="12" width="4.42578125"/>
-    <col customWidth="1" max="6" min="6" style="12" width="21.140625"/>
-    <col customWidth="1" max="7" min="7" style="12" width="3.85546875"/>
-    <col customWidth="1" max="8" min="8" style="12" width="4.42578125"/>
-    <col customWidth="1" max="9" min="9" style="12" width="21.140625"/>
-    <col customWidth="1" max="10" min="10" style="12" width="3.85546875"/>
-    <col customWidth="1" max="11" min="11" style="12" width="4.42578125"/>
-    <col customWidth="1" max="12" min="12" style="12" width="21.140625"/>
-    <col customWidth="1" max="13" min="13" style="12" width="3.85546875"/>
-    <col customWidth="1" max="14" min="14" style="12" width="4.42578125"/>
-    <col customWidth="1" max="15" min="15" style="12" width="21.140625"/>
-    <col customWidth="1" max="16" min="16" style="12" width="3.85546875"/>
-    <col customWidth="1" max="17" min="17" style="12" width="4.42578125"/>
-    <col customWidth="1" max="18" min="18" style="12" width="21.140625"/>
-    <col customWidth="1" max="19" min="19" style="12" width="3.85546875"/>
-    <col customWidth="1" max="20" min="20" style="12" width="4.42578125"/>
-    <col customWidth="1" max="21" min="21" style="12" width="21.140625"/>
-    <col customWidth="1" max="22" min="22" style="12" width="3.85546875"/>
-    <col customWidth="1" max="23" min="23" style="12" width="4.42578125"/>
-    <col customWidth="1" max="24" min="24" style="12" width="21.140625"/>
-    <col customWidth="1" max="25" min="25" style="12" width="3.85546875"/>
-    <col customWidth="1" max="26" min="26" style="12" width="4.42578125"/>
-    <col customWidth="1" max="27" min="27" style="12" width="21.140625"/>
-    <col customWidth="1" max="28" min="28" style="12" width="3.85546875"/>
-    <col customWidth="1" max="29" min="29" style="12" width="4.42578125"/>
-    <col customWidth="1" max="30" min="30" style="12" width="21.140625"/>
-    <col customWidth="1" max="31" min="31" style="12" width="3.85546875"/>
-    <col customWidth="1" max="32" min="32" style="12" width="4.42578125"/>
-    <col customWidth="1" max="33" min="33" style="12" width="21.140625"/>
-    <col customWidth="1" max="34" min="34" style="12" width="3.85546875"/>
-    <col customWidth="1" max="35" min="35" style="12" width="4.42578125"/>
-    <col customWidth="1" max="36" min="36" style="12" width="21.140625"/>
-    <col customWidth="1" max="37" min="37" style="12" width="3.85546875"/>
-    <col customWidth="1" max="38" min="38" style="12" width="4.42578125"/>
-    <col customWidth="1" max="39" min="39" style="12" width="21.140625"/>
-    <col customWidth="1" max="40" min="40" style="12" width="3.85546875"/>
-    <col customWidth="1" max="41" min="41" style="12" width="4.42578125"/>
-    <col customWidth="1" max="42" min="42" style="12" width="21.140625"/>
-    <col customWidth="1" max="43" min="43" style="12" width="3.85546875"/>
-    <col customWidth="1" max="44" min="44" style="12" width="4.42578125"/>
-    <col customWidth="1" max="45" min="45" style="12" width="21.140625"/>
-    <col customWidth="1" max="46" min="46" style="12" width="3.85546875"/>
-    <col customWidth="1" max="47" min="47" style="12" width="4.42578125"/>
-    <col customWidth="1" max="48" min="48" style="12" width="21.140625"/>
-    <col customWidth="1" max="49" min="49" style="12" width="3.85546875"/>
-    <col customWidth="1" max="50" min="50" style="12" width="4.42578125"/>
-    <col customWidth="1" max="51" min="51" style="12" width="21.140625"/>
-    <col customWidth="1" max="52" min="52" style="12" width="3.85546875"/>
-    <col customWidth="1" max="53" min="53" style="12" width="4.42578125"/>
-    <col customWidth="1" max="54" min="54" style="12" width="21.140625"/>
-    <col customWidth="1" max="55" min="55" style="12" width="3.85546875"/>
-    <col customWidth="1" max="56" min="56" style="12" width="4.42578125"/>
-    <col customWidth="1" max="57" min="57" style="12" width="21.140625"/>
-    <col customWidth="1" max="58" min="58" style="12" width="3.85546875"/>
-    <col customWidth="1" max="59" min="59" style="12" width="4.42578125"/>
-    <col customWidth="1" max="60" min="60" style="12" width="21.140625"/>
-    <col customWidth="1" max="61" min="61" style="12" width="3.85546875"/>
-    <col customWidth="1" max="62" min="62" style="12" width="4.42578125"/>
-    <col customWidth="1" max="63" min="63" style="12" width="21.140625"/>
-    <col customWidth="1" max="64" min="64" style="12" width="3.85546875"/>
-    <col customWidth="1" max="65" min="65" style="12" width="4.42578125"/>
-    <col customWidth="1" max="66" min="66" style="12" width="21.140625"/>
-    <col customWidth="1" max="67" min="67" style="12" width="3.85546875"/>
-    <col customWidth="1" max="68" min="68" style="12" width="4.42578125"/>
-    <col customWidth="1" max="69" min="69" style="12" width="21.140625"/>
-    <col customWidth="1" max="70" min="70" style="12" width="3.85546875"/>
-    <col customWidth="1" max="71" min="71" style="12" width="4.42578125"/>
-    <col customWidth="1" max="72" min="72" style="12" width="21.140625"/>
-    <col customWidth="1" max="73" min="73" style="12" width="3.85546875"/>
-    <col customWidth="1" max="74" min="74" style="12" width="4.42578125"/>
-    <col customWidth="1" max="75" min="75" style="12" width="21.140625"/>
-    <col customWidth="1" max="76" min="76" style="12" width="3.85546875"/>
-    <col customWidth="1" max="77" min="77" style="12" width="4.42578125"/>
-    <col customWidth="1" max="78" min="78" style="12" width="21.140625"/>
-    <col customWidth="1" max="79" min="79" style="12" width="3.85546875"/>
-    <col customWidth="1" max="80" min="80" style="12" width="4.42578125"/>
-    <col customWidth="1" max="81" min="81" style="12" width="21.140625"/>
-    <col customWidth="1" max="82" min="82" style="12" width="3.85546875"/>
-    <col customWidth="1" max="83" min="83" style="12" width="4.42578125"/>
-    <col customWidth="1" max="84" min="84" style="12" width="21.140625"/>
-    <col customWidth="1" max="85" min="85" style="12" width="3.85546875"/>
-    <col customWidth="1" max="86" min="86" style="12" width="4.42578125"/>
-    <col customWidth="1" max="87" min="87" style="12" width="21.140625"/>
-    <col customWidth="1" max="88" min="88" style="12" width="3.85546875"/>
-    <col customWidth="1" max="89" min="89" style="12" width="4.42578125"/>
-    <col customWidth="1" max="90" min="90" style="12" width="21.140625"/>
-    <col customWidth="1" max="91" min="91" style="12" width="3.85546875"/>
-    <col customWidth="1" max="92" min="92" style="12" width="4.42578125"/>
-    <col customWidth="1" max="93" min="93" style="12" width="21.140625"/>
-    <col customWidth="1" max="94" min="94" style="12" width="3.85546875"/>
-    <col customWidth="1" max="95" min="95" style="12" width="4.42578125"/>
-    <col customWidth="1" max="96" min="96" style="12" width="21.140625"/>
-    <col customWidth="1" max="97" min="97" style="12" width="3.85546875"/>
-    <col customWidth="1" max="98" min="98" style="12" width="4.42578125"/>
-    <col customWidth="1" max="102" min="99" style="12" width="10.7109375"/>
-    <col customWidth="1" max="113" min="103" style="12" width="9.140625"/>
-    <col customWidth="1" max="16384" min="114" style="12" width="9.140625"/>
+    <col customWidth="1" max="1" min="1" style="11" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="11" width="2"/>
+    <col customWidth="1" max="3" min="3" style="11" width="11.7109375"/>
+    <col customWidth="1" max="4" min="4" style="11" width="3.85546875"/>
+    <col customWidth="1" max="5" min="5" style="11" width="4.42578125"/>
+    <col customWidth="1" max="6" min="6" style="11" width="21.140625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="3.85546875"/>
+    <col customWidth="1" max="8" min="8" style="11" width="4.42578125"/>
+    <col customWidth="1" max="9" min="9" style="11" width="21.140625"/>
+    <col customWidth="1" max="10" min="10" style="11" width="3.85546875"/>
+    <col customWidth="1" max="11" min="11" style="11" width="4.42578125"/>
+    <col customWidth="1" max="12" min="12" style="11" width="21.140625"/>
+    <col customWidth="1" max="13" min="13" style="11" width="3.85546875"/>
+    <col customWidth="1" max="14" min="14" style="11" width="4.42578125"/>
+    <col customWidth="1" max="15" min="15" style="11" width="21.140625"/>
+    <col customWidth="1" max="16" min="16" style="11" width="3.85546875"/>
+    <col customWidth="1" max="17" min="17" style="11" width="4.42578125"/>
+    <col customWidth="1" max="18" min="18" style="11" width="21.140625"/>
+    <col customWidth="1" max="19" min="19" style="11" width="3.85546875"/>
+    <col customWidth="1" max="20" min="20" style="11" width="4.42578125"/>
+    <col customWidth="1" max="21" min="21" style="11" width="21.140625"/>
+    <col customWidth="1" max="22" min="22" style="11" width="3.85546875"/>
+    <col customWidth="1" max="23" min="23" style="11" width="4.42578125"/>
+    <col customWidth="1" max="24" min="24" style="11" width="21.140625"/>
+    <col customWidth="1" max="25" min="25" style="11" width="3.85546875"/>
+    <col customWidth="1" max="26" min="26" style="11" width="4.42578125"/>
+    <col customWidth="1" max="27" min="27" style="11" width="21.140625"/>
+    <col customWidth="1" max="28" min="28" style="11" width="3.85546875"/>
+    <col customWidth="1" max="29" min="29" style="11" width="4.42578125"/>
+    <col customWidth="1" max="30" min="30" style="11" width="21.140625"/>
+    <col customWidth="1" max="31" min="31" style="11" width="3.85546875"/>
+    <col customWidth="1" max="32" min="32" style="11" width="4.42578125"/>
+    <col customWidth="1" max="33" min="33" style="11" width="21.140625"/>
+    <col customWidth="1" max="34" min="34" style="11" width="3.85546875"/>
+    <col customWidth="1" max="35" min="35" style="11" width="4.42578125"/>
+    <col customWidth="1" max="36" min="36" style="11" width="21.140625"/>
+    <col customWidth="1" max="37" min="37" style="11" width="3.85546875"/>
+    <col customWidth="1" max="38" min="38" style="11" width="4.42578125"/>
+    <col customWidth="1" max="39" min="39" style="11" width="21.140625"/>
+    <col customWidth="1" max="40" min="40" style="11" width="3.85546875"/>
+    <col customWidth="1" max="41" min="41" style="11" width="4.42578125"/>
+    <col customWidth="1" max="42" min="42" style="11" width="21.140625"/>
+    <col customWidth="1" max="43" min="43" style="11" width="3.85546875"/>
+    <col customWidth="1" max="44" min="44" style="11" width="4.42578125"/>
+    <col customWidth="1" max="45" min="45" style="11" width="21.140625"/>
+    <col customWidth="1" max="46" min="46" style="11" width="3.85546875"/>
+    <col customWidth="1" max="47" min="47" style="11" width="4.42578125"/>
+    <col customWidth="1" max="48" min="48" style="11" width="21.140625"/>
+    <col customWidth="1" max="49" min="49" style="11" width="3.85546875"/>
+    <col customWidth="1" max="50" min="50" style="11" width="4.42578125"/>
+    <col customWidth="1" max="51" min="51" style="11" width="21.140625"/>
+    <col customWidth="1" max="52" min="52" style="11" width="3.85546875"/>
+    <col customWidth="1" max="53" min="53" style="11" width="4.42578125"/>
+    <col customWidth="1" max="54" min="54" style="11" width="21.140625"/>
+    <col customWidth="1" max="55" min="55" style="11" width="3.85546875"/>
+    <col customWidth="1" max="56" min="56" style="11" width="4.42578125"/>
+    <col customWidth="1" max="57" min="57" style="11" width="21.140625"/>
+    <col customWidth="1" max="58" min="58" style="11" width="3.85546875"/>
+    <col customWidth="1" max="59" min="59" style="11" width="4.42578125"/>
+    <col customWidth="1" max="60" min="60" style="11" width="21.140625"/>
+    <col customWidth="1" max="61" min="61" style="11" width="3.85546875"/>
+    <col customWidth="1" max="62" min="62" style="11" width="4.42578125"/>
+    <col customWidth="1" max="63" min="63" style="11" width="21.140625"/>
+    <col customWidth="1" max="64" min="64" style="11" width="3.85546875"/>
+    <col customWidth="1" max="65" min="65" style="11" width="4.42578125"/>
+    <col customWidth="1" max="66" min="66" style="11" width="21.140625"/>
+    <col customWidth="1" max="67" min="67" style="11" width="3.85546875"/>
+    <col customWidth="1" max="68" min="68" style="11" width="4.42578125"/>
+    <col customWidth="1" max="69" min="69" style="11" width="21.140625"/>
+    <col customWidth="1" max="70" min="70" style="11" width="3.85546875"/>
+    <col customWidth="1" max="71" min="71" style="11" width="4.42578125"/>
+    <col customWidth="1" max="72" min="72" style="11" width="21.140625"/>
+    <col customWidth="1" max="73" min="73" style="11" width="3.85546875"/>
+    <col customWidth="1" max="74" min="74" style="11" width="4.42578125"/>
+    <col customWidth="1" max="75" min="75" style="11" width="21.140625"/>
+    <col customWidth="1" max="76" min="76" style="11" width="3.85546875"/>
+    <col customWidth="1" max="77" min="77" style="11" width="4.42578125"/>
+    <col customWidth="1" max="78" min="78" style="11" width="21.140625"/>
+    <col customWidth="1" max="79" min="79" style="11" width="3.85546875"/>
+    <col customWidth="1" max="80" min="80" style="11" width="4.42578125"/>
+    <col customWidth="1" max="81" min="81" style="11" width="21.140625"/>
+    <col customWidth="1" max="82" min="82" style="11" width="3.85546875"/>
+    <col customWidth="1" max="83" min="83" style="11" width="4.42578125"/>
+    <col customWidth="1" max="84" min="84" style="11" width="21.140625"/>
+    <col customWidth="1" max="85" min="85" style="11" width="3.85546875"/>
+    <col customWidth="1" max="86" min="86" style="11" width="4.42578125"/>
+    <col customWidth="1" max="87" min="87" style="11" width="21.140625"/>
+    <col customWidth="1" max="88" min="88" style="11" width="3.85546875"/>
+    <col customWidth="1" max="89" min="89" style="11" width="4.42578125"/>
+    <col customWidth="1" max="90" min="90" style="11" width="21.140625"/>
+    <col customWidth="1" max="91" min="91" style="11" width="3.85546875"/>
+    <col customWidth="1" max="92" min="92" style="11" width="4.42578125"/>
+    <col customWidth="1" max="93" min="93" style="11" width="21.140625"/>
+    <col customWidth="1" max="94" min="94" style="11" width="3.85546875"/>
+    <col customWidth="1" max="95" min="95" style="11" width="4.42578125"/>
+    <col customWidth="1" max="96" min="96" style="11" width="21.140625"/>
+    <col customWidth="1" max="97" min="97" style="11" width="3.85546875"/>
+    <col customWidth="1" max="98" min="98" style="11" width="4.42578125"/>
+    <col customWidth="1" max="102" min="99" style="11" width="10.7109375"/>
+    <col customWidth="1" max="114" min="103" style="11" width="9.140625"/>
+    <col customWidth="1" max="16384" min="115" style="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -690,22 +690,22 @@
           <t>Эрдаг Э.Э.</t>
         </is>
       </c>
-      <c r="BW1" s="12" t="n"/>
-      <c r="BZ1" s="12" t="n"/>
-      <c r="CC1" s="12" t="n"/>
-      <c r="CF1" s="12" t="n"/>
-      <c r="CI1" s="12" t="n"/>
-      <c r="CL1" s="12" t="n"/>
-      <c r="CO1" s="12" t="n"/>
-      <c r="CR1" s="12" t="n"/>
+      <c r="BW1" s="11" t="n"/>
+      <c r="BZ1" s="11" t="n"/>
+      <c r="CC1" s="11" t="n"/>
+      <c r="CF1" s="11" t="n"/>
+      <c r="CI1" s="11" t="n"/>
+      <c r="CL1" s="11" t="n"/>
+      <c r="CO1" s="11" t="n"/>
+      <c r="CR1" s="11" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Понедельник</t>
         </is>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -832,7 +832,7 @@
       <c r="AR2" s="2" t="n"/>
       <c r="AS2" s="1" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 1</t>
         </is>
       </c>
       <c r="AT2" s="7" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="BT2" s="1" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 2</t>
         </is>
       </c>
       <c r="BU2" s="7" t="inlineStr">
@@ -946,7 +946,7 @@
       <c r="CT2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1067,7 +1067,7 @@
       <c r="AR3" s="4" t="n"/>
       <c r="AS3" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1158,7 +1158,7 @@
       <c r="CT3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1236,7 +1236,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="AP4" s="3" t="inlineStr">
         <is>
-          <t>Экономика</t>
+          <t>Экономика 1</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AS4" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="BT4" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 1</t>
         </is>
       </c>
       <c r="BU4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       <c r="CT4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Физика 2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1470,7 +1470,7 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1511,7 +1511,7 @@
       <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="3" t="inlineStr">
         <is>
-          <t>Обществознание</t>
+          <t>Обществознание 1</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AS5" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1615,7 +1615,7 @@
       <c r="CT5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="CT6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -1926,7 +1926,7 @@
       <c r="AR7" s="4" t="n"/>
       <c r="AS7" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 1</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="BE7" s="3" t="inlineStr">
         <is>
-          <t>Обществознание</t>
+          <t>Обществознание 2</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
@@ -2050,7 +2050,7 @@
       <c r="CT7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="n"/>
@@ -2119,7 +2119,7 @@
       <c r="CT8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -2188,7 +2188,7 @@
       <c r="CT9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="n"/>
@@ -2289,12 +2289,12 @@
       <c r="CT10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="13" t="inlineStr">
         <is>
           <t>Вторник</t>
         </is>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="n"/>
@@ -2525,7 +2525,7 @@
       <c r="CT11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="n"/>
@@ -2539,7 +2539,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M12" s="12" t="inlineStr">
+      <c r="M12" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -2552,7 +2552,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P12" s="12" t="inlineStr">
+      <c r="P12" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -2565,7 +2565,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S12" s="12" t="inlineStr">
+      <c r="S12" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -2591,7 +2591,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y12" s="12" t="inlineStr">
+      <c r="Y12" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -2608,7 +2608,7 @@
           <t>География</t>
         </is>
       </c>
-      <c r="AH12" s="12" t="inlineStr">
+      <c r="AH12" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -2621,7 +2621,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK12" s="12" t="inlineStr">
+      <c r="AK12" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -2655,7 +2655,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC12" s="12" t="inlineStr">
+      <c r="BC12" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -2668,7 +2668,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF12" s="12" t="inlineStr">
+      <c r="BF12" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -2681,7 +2681,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI12" s="12" t="inlineStr">
+      <c r="BI12" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -2694,7 +2694,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BL12" s="12" t="inlineStr">
+      <c r="BL12" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -2709,7 +2709,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BR12" s="12" t="inlineStr">
+      <c r="BR12" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -2737,7 +2737,7 @@
       <c r="CT12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2745,7 +2745,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -2759,10 +2759,10 @@
       <c r="K13" s="4" t="n"/>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>Физика</t>
-        </is>
-      </c>
-      <c r="M13" s="12" t="inlineStr">
+          <t>Физика 2</t>
+        </is>
+      </c>
+      <c r="M13" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -2775,7 +2775,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P13" s="12" t="inlineStr">
+      <c r="P13" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -2788,7 +2788,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S13" s="12" t="inlineStr">
+      <c r="S13" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -2829,7 +2829,7 @@
           <t>Информатика</t>
         </is>
       </c>
-      <c r="AE13" s="12" t="inlineStr">
+      <c r="AE13" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -2844,7 +2844,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK13" s="12" t="inlineStr">
+      <c r="AK13" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -2857,7 +2857,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN13" s="12" t="inlineStr">
+      <c r="AN13" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -2867,10 +2867,10 @@
       </c>
       <c r="AP13" s="3" t="inlineStr">
         <is>
-          <t>Экономика</t>
-        </is>
-      </c>
-      <c r="AQ13" s="12" t="inlineStr">
+          <t>Экономика 1</t>
+        </is>
+      </c>
+      <c r="AQ13" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -2904,7 +2904,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI13" s="12" t="inlineStr">
+      <c r="BI13" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -2917,7 +2917,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BL13" s="12" t="inlineStr">
+      <c r="BL13" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -2932,7 +2932,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR13" s="12" t="inlineStr">
+      <c r="BR13" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -2960,7 +2960,7 @@
       <c r="CT13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="12" t="n">
+      <c r="B14" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2968,7 +2968,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="D14" s="12" t="inlineStr">
+      <c r="D14" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -2981,7 +2981,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G14" s="12" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -2994,7 +2994,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J14" s="12" t="inlineStr">
+      <c r="J14" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -3035,7 +3035,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="V14" s="12" t="inlineStr">
+      <c r="V14" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -3048,7 +3048,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="Y14" s="12" t="inlineStr">
+      <c r="Y14" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -3065,7 +3065,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH14" s="12" t="inlineStr">
+      <c r="AH14" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -3078,7 +3078,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK14" s="12" t="inlineStr">
+      <c r="AK14" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -3091,7 +3091,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN14" s="12" t="inlineStr">
+      <c r="AN14" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -3112,7 +3112,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="BC14" s="12" t="inlineStr">
+      <c r="BC14" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -3144,7 +3144,7 @@
           <t>Эл. Русский язык</t>
         </is>
       </c>
-      <c r="BR14" s="12" t="inlineStr">
+      <c r="BR14" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -3172,7 +3172,7 @@
       <c r="CT14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="12" t="n">
+      <c r="B15" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -3180,7 +3180,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -3197,7 +3197,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M15" s="12" t="inlineStr">
+      <c r="M15" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -3216,7 +3216,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y15" s="12" t="inlineStr">
+      <c r="Y15" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -3229,7 +3229,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB15" s="12" t="inlineStr">
+      <c r="AB15" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -3244,7 +3244,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH15" s="12" t="inlineStr">
+      <c r="AH15" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -3259,7 +3259,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN15" s="12" t="inlineStr">
+      <c r="AN15" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -3291,7 +3291,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC15" s="12" t="inlineStr">
+      <c r="BC15" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -3306,7 +3306,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI15" s="12" t="inlineStr">
+      <c r="BI15" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -3332,7 +3332,7 @@
           <t>Музыка</t>
         </is>
       </c>
-      <c r="BO15" s="12" t="inlineStr">
+      <c r="BO15" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -3345,7 +3345,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BR15" s="12" t="inlineStr">
+      <c r="BR15" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -3373,7 +3373,7 @@
       <c r="CT15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="n"/>
@@ -3383,7 +3383,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G16" s="12" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -3396,7 +3396,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J16" s="12" t="inlineStr">
+      <c r="J16" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -3430,7 +3430,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB16" s="12" t="inlineStr">
+      <c r="AB16" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -3440,10 +3440,10 @@
       </c>
       <c r="AD16" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE16" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE16" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -3458,7 +3458,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK16" s="12" t="inlineStr">
+      <c r="AK16" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -3471,7 +3471,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN16" s="12" t="inlineStr">
+      <c r="AN16" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -3505,7 +3505,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF16" s="12" t="inlineStr">
+      <c r="BF16" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -3518,7 +3518,7 @@
           <t>Эл. Математика</t>
         </is>
       </c>
-      <c r="BI16" s="12" t="inlineStr">
+      <c r="BI16" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -3531,7 +3531,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BL16" s="12" t="inlineStr">
+      <c r="BL16" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -3557,7 +3557,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR16" s="12" t="inlineStr">
+      <c r="BR16" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -3585,7 +3585,7 @@
       <c r="CT16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -3599,7 +3599,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M17" s="12" t="inlineStr">
+      <c r="M17" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -3614,7 +3614,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S17" s="12" t="inlineStr">
+      <c r="S17" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -3631,7 +3631,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB17" s="12" t="inlineStr">
+      <c r="AB17" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -3641,10 +3641,10 @@
       </c>
       <c r="AD17" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE17" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AE17" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -3661,7 +3661,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN17" s="12" t="inlineStr">
+      <c r="AN17" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -3675,10 +3675,10 @@
       <c r="AU17" s="4" t="n"/>
       <c r="AV17" s="3" t="inlineStr">
         <is>
-          <t>География</t>
-        </is>
-      </c>
-      <c r="AW17" s="12" t="inlineStr">
+          <t>География 1</t>
+        </is>
+      </c>
+      <c r="AW17" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -3692,10 +3692,10 @@
       <c r="BD17" s="4" t="n"/>
       <c r="BE17" s="3" t="inlineStr">
         <is>
-          <t>Обществознание</t>
-        </is>
-      </c>
-      <c r="BF17" s="12" t="inlineStr">
+          <t>Обществознание 2</t>
+        </is>
+      </c>
+      <c r="BF17" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -3714,7 +3714,7 @@
           <t>Эл. Русский язык</t>
         </is>
       </c>
-      <c r="BR17" s="12" t="inlineStr">
+      <c r="BR17" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -3742,7 +3742,7 @@
       <c r="CT17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="n"/>
@@ -3811,7 +3811,7 @@
       <c r="CT18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C19" s="5" t="n"/>
@@ -3912,12 +3912,12 @@
       <c r="CT19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+      <c r="A20" s="13" t="inlineStr">
         <is>
           <t>Среда</t>
         </is>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="n"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="AP20" s="1" t="inlineStr">
         <is>
-          <t>Право</t>
+          <t>Право 1</t>
         </is>
       </c>
       <c r="AQ20" s="7" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="AS20" s="1" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT20" s="7" t="inlineStr">
@@ -4148,7 +4148,7 @@
       <c r="CT20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -4177,7 +4177,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S21" s="12" t="inlineStr">
+      <c r="S21" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -4190,7 +4190,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="V21" s="12" t="inlineStr">
+      <c r="V21" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -4203,7 +4203,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="Y21" s="12" t="inlineStr">
+      <c r="Y21" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -4216,7 +4216,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB21" s="12" t="inlineStr">
+      <c r="AB21" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -4229,7 +4229,7 @@
           <t>Информатика</t>
         </is>
       </c>
-      <c r="AE21" s="12" t="inlineStr">
+      <c r="AE21" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -4242,7 +4242,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH21" s="12" t="inlineStr">
+      <c r="AH21" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -4255,7 +4255,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK21" s="12" t="inlineStr">
+      <c r="AK21" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -4278,7 +4278,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="BC21" s="12" t="inlineStr">
+      <c r="BC21" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -4291,7 +4291,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF21" s="12" t="inlineStr">
+      <c r="BF21" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -4304,7 +4304,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI21" s="12" t="inlineStr">
+      <c r="BI21" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -4332,7 +4332,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BR21" s="12" t="inlineStr">
+      <c r="BR21" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -4360,7 +4360,7 @@
       <c r="CT21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -4368,7 +4368,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D22" s="12" t="inlineStr">
+      <c r="D22" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -4381,7 +4381,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -4398,7 +4398,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P22" s="12" t="inlineStr">
+      <c r="P22" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -4413,7 +4413,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="V22" s="12" t="inlineStr">
+      <c r="V22" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -4438,10 +4438,10 @@
       <c r="AC22" s="4" t="n"/>
       <c r="AD22" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE22" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AE22" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -4454,7 +4454,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH22" s="12" t="inlineStr">
+      <c r="AH22" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -4467,7 +4467,7 @@
           <t>ОБЖ</t>
         </is>
       </c>
-      <c r="AK22" s="12" t="inlineStr">
+      <c r="AK22" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -4480,7 +4480,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN22" s="12" t="inlineStr">
+      <c r="AN22" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -4514,7 +4514,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="BF22" s="12" t="inlineStr">
+      <c r="BF22" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -4544,7 +4544,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR22" s="12" t="inlineStr">
+      <c r="BR22" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -4572,7 +4572,7 @@
       <c r="CT22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -4580,7 +4580,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D23" s="12" t="inlineStr">
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -4594,10 +4594,10 @@
       <c r="K23" s="4" t="n"/>
       <c r="L23" s="3" t="inlineStr">
         <is>
-          <t>Физика</t>
-        </is>
-      </c>
-      <c r="M23" s="12" t="inlineStr">
+          <t>Физика 2</t>
+        </is>
+      </c>
+      <c r="M23" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -4612,7 +4612,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S23" s="12" t="inlineStr">
+      <c r="S23" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -4638,7 +4638,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y23" s="12" t="inlineStr">
+      <c r="Y23" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -4651,7 +4651,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB23" s="12" t="inlineStr">
+      <c r="AB23" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -4661,10 +4661,10 @@
       </c>
       <c r="AD23" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE23" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE23" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -4681,7 +4681,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN23" s="12" t="inlineStr">
+      <c r="AN23" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -4691,10 +4691,10 @@
       </c>
       <c r="AP23" s="3" t="inlineStr">
         <is>
-          <t>Обществознание</t>
-        </is>
-      </c>
-      <c r="AQ23" s="12" t="inlineStr">
+          <t>Обществознание 1</t>
+        </is>
+      </c>
+      <c r="AQ23" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -4704,10 +4704,10 @@
       </c>
       <c r="AS23" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT23" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AT23" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -4735,7 +4735,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC23" s="12" t="inlineStr">
+      <c r="BC23" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -4750,7 +4750,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI23" s="12" t="inlineStr">
+      <c r="BI23" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -4763,7 +4763,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BL23" s="12" t="inlineStr">
+      <c r="BL23" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -4778,7 +4778,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR23" s="12" t="inlineStr">
+      <c r="BR23" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -4806,7 +4806,7 @@
       <c r="CT23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4814,7 +4814,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D24" s="12" t="inlineStr">
+      <c r="D24" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -4831,7 +4831,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M24" s="12" t="inlineStr">
+      <c r="M24" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -4844,7 +4844,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P24" s="12" t="inlineStr">
+      <c r="P24" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -4874,7 +4874,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB24" s="12" t="inlineStr">
+      <c r="AB24" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -4884,10 +4884,10 @@
       </c>
       <c r="AD24" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE24" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AE24" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -4904,7 +4904,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN24" s="12" t="inlineStr">
+      <c r="AN24" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -4916,10 +4916,10 @@
       <c r="AR24" s="4" t="n"/>
       <c r="AS24" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT24" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AT24" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -4932,7 +4932,7 @@
           <t>География</t>
         </is>
       </c>
-      <c r="AW24" s="12" t="inlineStr">
+      <c r="AW24" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -4960,7 +4960,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF24" s="12" t="inlineStr">
+      <c r="BF24" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -4975,7 +4975,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BL24" s="12" t="inlineStr">
+      <c r="BL24" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -5001,7 +5001,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR24" s="12" t="inlineStr">
+      <c r="BR24" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -5029,7 +5029,7 @@
       <c r="CT24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -5039,7 +5039,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G25" s="12" t="inlineStr">
+      <c r="G25" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -5089,12 +5089,12 @@
       <c r="AI25" s="4" t="n"/>
       <c r="AJ25" s="3" t="n"/>
       <c r="AL25" s="4" t="n"/>
-      <c r="AM25" s="10" t="inlineStr">
+      <c r="AM25" s="9" t="inlineStr">
         <is>
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN25" s="12" t="inlineStr">
+      <c r="AN25" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -5119,7 +5119,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI25" s="12" t="inlineStr">
+      <c r="BI25" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -5145,7 +5145,7 @@
           <t>Музыка</t>
         </is>
       </c>
-      <c r="BO25" s="12" t="inlineStr">
+      <c r="BO25" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -5175,7 +5175,7 @@
       <c r="CT25" s="4" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="n"/>
@@ -5191,7 +5191,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P26" s="12" t="inlineStr">
+      <c r="P26" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -5204,7 +5204,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S26" s="12" t="inlineStr">
+      <c r="S26" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -5220,10 +5220,10 @@
       <c r="AC26" s="4" t="n"/>
       <c r="AD26" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE26" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE26" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -5260,7 +5260,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BR26" s="12" t="inlineStr">
+      <c r="BR26" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -5288,7 +5288,7 @@
       <c r="CT26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -5357,7 +5357,7 @@
       <c r="CT27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C28" s="5" t="n"/>
@@ -5458,12 +5458,12 @@
       <c r="CT28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="13" t="inlineStr">
         <is>
           <t>Четверг</t>
         </is>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="n"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Физика 2</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="AP29" s="1" t="inlineStr">
         <is>
-          <t>Обществознание</t>
+          <t>Обществознание 1</t>
         </is>
       </c>
       <c r="AQ29" s="7" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="AS29" s="1" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT29" s="7" t="inlineStr">
@@ -5677,7 +5677,7 @@
       <c r="BS29" s="2" t="n"/>
       <c r="BT29" s="1" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 1</t>
         </is>
       </c>
       <c r="BU29" s="7" t="inlineStr">
@@ -5714,7 +5714,7 @@
       <c r="CT29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -5722,7 +5722,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D30" s="12" t="inlineStr">
+      <c r="D30" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -5732,10 +5732,10 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
-        </is>
-      </c>
-      <c r="G30" s="12" t="inlineStr">
+          <t>Технология 1</t>
+        </is>
+      </c>
+      <c r="G30" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -5763,7 +5763,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P30" s="12" t="inlineStr">
+      <c r="P30" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -5793,7 +5793,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB30" s="12" t="inlineStr">
+      <c r="AB30" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -5808,7 +5808,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH30" s="12" t="inlineStr">
+      <c r="AH30" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -5821,7 +5821,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK30" s="12" t="inlineStr">
+      <c r="AK30" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -5834,7 +5834,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN30" s="12" t="inlineStr">
+      <c r="AN30" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -5857,7 +5857,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF30" s="12" t="inlineStr">
+      <c r="BF30" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -5870,7 +5870,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI30" s="12" t="inlineStr">
+      <c r="BI30" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -5883,7 +5883,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BL30" s="12" t="inlineStr">
+      <c r="BL30" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -5897,10 +5897,10 @@
       <c r="BS30" s="4" t="n"/>
       <c r="BT30" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
-        </is>
-      </c>
-      <c r="BU30" s="12" t="inlineStr">
+          <t>Турецкий язык 2</t>
+        </is>
+      </c>
+      <c r="BU30" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -5926,7 +5926,7 @@
       <c r="CT30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -5938,7 +5938,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J31" s="12" t="inlineStr">
+      <c r="J31" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -5951,7 +5951,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M31" s="12" t="inlineStr">
+      <c r="M31" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -5990,7 +5990,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="V31" s="12" t="inlineStr">
+      <c r="V31" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -6003,7 +6003,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y31" s="12" t="inlineStr">
+      <c r="Y31" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6015,10 +6015,10 @@
       <c r="AC31" s="4" t="n"/>
       <c r="AD31" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE31" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE31" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6033,7 +6033,7 @@
           <t>ОБЖ</t>
         </is>
       </c>
-      <c r="AK31" s="12" t="inlineStr">
+      <c r="AK31" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6046,7 +6046,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN31" s="12" t="inlineStr">
+      <c r="AN31" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -6058,10 +6058,10 @@
       <c r="AR31" s="4" t="n"/>
       <c r="AS31" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT31" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AT31" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6078,7 +6078,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC31" s="12" t="inlineStr">
+      <c r="BC31" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6093,7 +6093,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI31" s="12" t="inlineStr">
+      <c r="BI31" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -6123,7 +6123,7 @@
           <t>Эл. Английский язык</t>
         </is>
       </c>
-      <c r="BU31" s="12" t="inlineStr">
+      <c r="BU31" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -6149,7 +6149,7 @@
       <c r="CT31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -6157,7 +6157,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="D32" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6167,10 +6167,10 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
-        </is>
-      </c>
-      <c r="G32" s="12" t="inlineStr">
+          <t>Технология 2</t>
+        </is>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -6183,7 +6183,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J32" s="12" t="inlineStr">
+      <c r="J32" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -6226,7 +6226,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="Y32" s="12" t="inlineStr">
+      <c r="Y32" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -6245,7 +6245,7 @@
           <t>ОБЖ</t>
         </is>
       </c>
-      <c r="AK32" s="12" t="inlineStr">
+      <c r="AK32" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6259,10 +6259,10 @@
       <c r="AR32" s="4" t="n"/>
       <c r="AS32" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT32" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AT32" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -6290,7 +6290,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="BC32" s="12" t="inlineStr">
+      <c r="BC32" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -6303,7 +6303,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF32" s="12" t="inlineStr">
+      <c r="BF32" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6316,7 +6316,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI32" s="12" t="inlineStr">
+      <c r="BI32" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -6329,7 +6329,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BL32" s="12" t="inlineStr">
+      <c r="BL32" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -6346,7 +6346,7 @@
           <t>Эл. Турецкий язык</t>
         </is>
       </c>
-      <c r="BU32" s="12" t="inlineStr">
+      <c r="BU32" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -6372,7 +6372,7 @@
       <c r="CT32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -6380,7 +6380,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D33" s="12" t="inlineStr">
+      <c r="D33" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6394,7 +6394,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J33" s="12" t="inlineStr">
+      <c r="J33" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6407,7 +6407,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M33" s="12" t="inlineStr">
+      <c r="M33" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -6422,7 +6422,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S33" s="12" t="inlineStr">
+      <c r="S33" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6435,7 +6435,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="V33" s="12" t="inlineStr">
+      <c r="V33" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -6448,7 +6448,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y33" s="12" t="inlineStr">
+      <c r="Y33" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -6461,7 +6461,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB33" s="12" t="inlineStr">
+      <c r="AB33" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6474,7 +6474,7 @@
           <t>Информатика</t>
         </is>
       </c>
-      <c r="AE33" s="12" t="inlineStr">
+      <c r="AE33" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -6491,7 +6491,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN33" s="12" t="inlineStr">
+      <c r="AN33" s="11" t="inlineStr">
         <is>
           <t>7А</t>
         </is>
@@ -6508,7 +6508,7 @@
           <t>География</t>
         </is>
       </c>
-      <c r="AW33" s="12" t="inlineStr">
+      <c r="AW33" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -6527,7 +6527,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BL33" s="12" t="inlineStr">
+      <c r="BL33" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -6570,7 +6570,7 @@
       <c r="CT33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C34" s="3" t="n"/>
@@ -6593,7 +6593,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J34" s="12" t="inlineStr">
+      <c r="J34" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -6608,7 +6608,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P34" s="12" t="inlineStr">
+      <c r="P34" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -6627,7 +6627,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB34" s="12" t="inlineStr">
+      <c r="AB34" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -6637,10 +6637,10 @@
       </c>
       <c r="AD34" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE34" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AE34" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -6653,7 +6653,7 @@
           <t>ОБЖ</t>
         </is>
       </c>
-      <c r="AK34" s="12" t="inlineStr">
+      <c r="AK34" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -6666,7 +6666,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN34" s="12" t="inlineStr">
+      <c r="AN34" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6678,10 +6678,10 @@
       <c r="AR34" s="4" t="n"/>
       <c r="AS34" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT34" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AT34" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6694,7 +6694,7 @@
           <t>География</t>
         </is>
       </c>
-      <c r="AW34" s="12" t="inlineStr">
+      <c r="AW34" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -6709,7 +6709,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC34" s="12" t="inlineStr">
+      <c r="BC34" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -6722,7 +6722,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF34" s="12" t="inlineStr">
+      <c r="BF34" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6751,10 +6751,10 @@
       <c r="BS34" s="4" t="n"/>
       <c r="BT34" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
-        </is>
-      </c>
-      <c r="BU34" s="12" t="inlineStr">
+          <t>Турецкий язык 1</t>
+        </is>
+      </c>
+      <c r="BU34" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6780,7 +6780,7 @@
       <c r="CT34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -6790,7 +6790,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G35" s="12" t="inlineStr">
+      <c r="G35" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -6807,7 +6807,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P35" s="12" t="inlineStr">
+      <c r="P35" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6826,7 +6826,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB35" s="12" t="inlineStr">
+      <c r="AB35" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -6836,10 +6836,10 @@
       </c>
       <c r="AD35" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE35" s="12" t="inlineStr">
+          <t xml:space="preserve">Информатика 1 </t>
+        </is>
+      </c>
+      <c r="AE35" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -6854,7 +6854,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK35" s="12" t="inlineStr">
+      <c r="AK35" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -6867,7 +6867,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN35" s="12" t="inlineStr">
+      <c r="AN35" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -6879,10 +6879,10 @@
       <c r="AR35" s="4" t="n"/>
       <c r="AS35" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT35" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AT35" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6901,7 +6901,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="BF35" s="12" t="inlineStr">
+      <c r="BF35" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -6919,10 +6919,10 @@
       <c r="BS35" s="4" t="n"/>
       <c r="BT35" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
-        </is>
-      </c>
-      <c r="BU35" s="12" t="inlineStr">
+          <t>Турецкий язык 2</t>
+        </is>
+      </c>
+      <c r="BU35" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -6948,7 +6948,7 @@
       <c r="CT35" s="4" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C36" s="3" t="n"/>
@@ -7017,7 +7017,7 @@
       <c r="CT36" s="4" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C37" s="5" t="n"/>
@@ -7118,12 +7118,12 @@
       <c r="CT37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="inlineStr">
+      <c r="A38" s="13" t="inlineStr">
         <is>
           <t>Пятница</t>
         </is>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="n"/>
@@ -7236,7 +7236,7 @@
       <c r="AX38" s="2" t="n"/>
       <c r="AY38" s="1" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 1</t>
         </is>
       </c>
       <c r="AZ38" s="7" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="BT38" s="1" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 2</t>
         </is>
       </c>
       <c r="BU38" s="7" t="inlineStr">
@@ -7354,7 +7354,7 @@
       <c r="CT38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -7362,7 +7362,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="D39" s="12" t="inlineStr">
+      <c r="D39" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -7377,7 +7377,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J39" s="12" t="inlineStr">
+      <c r="J39" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -7387,10 +7387,10 @@
       </c>
       <c r="L39" s="3" t="inlineStr">
         <is>
-          <t>Физика</t>
-        </is>
-      </c>
-      <c r="M39" s="12" t="inlineStr">
+          <t>Физика 2</t>
+        </is>
+      </c>
+      <c r="M39" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -7405,7 +7405,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S39" s="12" t="inlineStr">
+      <c r="S39" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -7418,7 +7418,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="V39" s="12" t="inlineStr">
+      <c r="V39" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -7437,7 +7437,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH39" s="12" t="inlineStr">
+      <c r="AH39" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -7450,7 +7450,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK39" s="12" t="inlineStr">
+      <c r="AK39" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -7462,10 +7462,10 @@
       <c r="AO39" s="4" t="n"/>
       <c r="AP39" s="3" t="inlineStr">
         <is>
-          <t>Обществознание</t>
-        </is>
-      </c>
-      <c r="AQ39" s="12" t="inlineStr">
+          <t>Обществознание 1</t>
+        </is>
+      </c>
+      <c r="AQ39" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -7479,7 +7479,7 @@
       <c r="AX39" s="4" t="n"/>
       <c r="AY39" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 2</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
@@ -7499,7 +7499,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI39" s="12" t="inlineStr">
+      <c r="BI39" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -7527,7 +7527,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BR39" s="12" t="inlineStr">
+      <c r="BR39" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="BT39" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 1</t>
         </is>
       </c>
       <c r="BU39" t="inlineStr">
@@ -7566,7 +7566,7 @@
       <c r="CT39" s="4" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="12" t="n">
+      <c r="B40" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -7574,7 +7574,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="D40" s="12" t="inlineStr">
+      <c r="D40" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -7588,10 +7588,10 @@
       <c r="K40" s="4" t="n"/>
       <c r="L40" s="3" t="inlineStr">
         <is>
-          <t>Физика</t>
-        </is>
-      </c>
-      <c r="M40" s="12" t="inlineStr">
+          <t>Физика 1</t>
+        </is>
+      </c>
+      <c r="M40" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -7604,7 +7604,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P40" s="12" t="inlineStr">
+      <c r="P40" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -7617,7 +7617,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="S40" s="12" t="inlineStr">
+      <c r="S40" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -7638,7 +7638,7 @@
           <t>География</t>
         </is>
       </c>
-      <c r="AH40" s="12" t="inlineStr">
+      <c r="AH40" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -7651,7 +7651,7 @@
           <t>ОБЖ</t>
         </is>
       </c>
-      <c r="AK40" s="12" t="inlineStr">
+      <c r="AK40" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -7664,7 +7664,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN40" s="12" t="inlineStr">
+      <c r="AN40" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -7676,10 +7676,10 @@
       <c r="AR40" s="4" t="n"/>
       <c r="AS40" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT40" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AT40" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -7691,7 +7691,7 @@
       <c r="AX40" s="4" t="n"/>
       <c r="AY40" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 1</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
@@ -7707,7 +7707,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC40" s="12" t="inlineStr">
+      <c r="BC40" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -7722,7 +7722,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI40" s="12" t="inlineStr">
+      <c r="BI40" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -7750,7 +7750,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR40" s="12" t="inlineStr">
+      <c r="BR40" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="BT40" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 2</t>
         </is>
       </c>
       <c r="BU40" t="inlineStr">
@@ -7789,7 +7789,7 @@
       <c r="CT40" s="4" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="12" t="n">
+      <c r="B41" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -7797,7 +7797,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="D41" s="12" t="inlineStr">
+      <c r="D41" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -7810,7 +7810,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G41" s="12" t="inlineStr">
+      <c r="G41" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -7827,7 +7827,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P41" s="12" t="inlineStr">
+      <c r="P41" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -7842,7 +7842,7 @@
           <t>Геометрия</t>
         </is>
       </c>
-      <c r="V41" s="12" t="inlineStr">
+      <c r="V41" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -7857,7 +7857,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB41" s="12" t="inlineStr">
+      <c r="AB41" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -7867,10 +7867,10 @@
       </c>
       <c r="AD41" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE41" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE41" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -7885,7 +7885,7 @@
           <t>Химия</t>
         </is>
       </c>
-      <c r="AK41" s="12" t="inlineStr">
+      <c r="AK41" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -7910,10 +7910,10 @@
       <c r="AR41" s="4" t="n"/>
       <c r="AS41" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT41" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AT41" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -7925,7 +7925,7 @@
       <c r="AX41" s="4" t="n"/>
       <c r="AY41" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 2</t>
         </is>
       </c>
       <c r="AZ41" t="inlineStr">
@@ -7943,7 +7943,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="BF41" s="12" t="inlineStr">
+      <c r="BF41" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -7958,7 +7958,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BL41" s="12" t="inlineStr">
+      <c r="BL41" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -7973,7 +7973,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BR41" s="12" t="inlineStr">
+      <c r="BR41" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="BT41" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
+          <t>Турецкий язык 1</t>
         </is>
       </c>
       <c r="BU41" t="inlineStr">
@@ -8012,7 +8012,7 @@
       <c r="CT41" s="4" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="n"/>
@@ -8022,7 +8022,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G42" s="12" t="inlineStr">
+      <c r="G42" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -8039,7 +8039,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="P42" s="12" t="inlineStr">
+      <c r="P42" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -8067,7 +8067,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y42" s="12" t="inlineStr">
+      <c r="Y42" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -8080,7 +8080,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB42" s="12" t="inlineStr">
+      <c r="AB42" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -8093,7 +8093,7 @@
           <t>Информатика</t>
         </is>
       </c>
-      <c r="AE42" s="12" t="inlineStr">
+      <c r="AE42" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -8110,7 +8110,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN42" s="12" t="inlineStr">
+      <c r="AN42" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -8122,10 +8122,10 @@
       <c r="AR42" s="4" t="n"/>
       <c r="AS42" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT42" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AT42" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -8142,7 +8142,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="BC42" s="12" t="inlineStr">
+      <c r="BC42" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -8168,7 +8168,7 @@
           <t>Эл. Математика</t>
         </is>
       </c>
-      <c r="BI42" s="12" t="inlineStr">
+      <c r="BI42" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -8181,7 +8181,7 @@
           <t>Русский язык</t>
         </is>
       </c>
-      <c r="BL42" s="12" t="inlineStr">
+      <c r="BL42" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -8196,7 +8196,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR42" s="12" t="inlineStr">
+      <c r="BR42" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -8206,10 +8206,10 @@
       </c>
       <c r="BT42" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
-        </is>
-      </c>
-      <c r="BU42" s="12" t="inlineStr">
+          <t>Турецкий язык 1</t>
+        </is>
+      </c>
+      <c r="BU42" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -8235,7 +8235,7 @@
       <c r="CT42" s="4" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="12" t="n">
+      <c r="B43" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -8268,7 +8268,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="Y43" s="12" t="inlineStr">
+      <c r="Y43" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -8281,7 +8281,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB43" s="12" t="inlineStr">
+      <c r="AB43" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -8291,10 +8291,10 @@
       </c>
       <c r="AD43" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE43" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE43" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -8307,7 +8307,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH43" s="12" t="inlineStr">
+      <c r="AH43" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -8320,7 +8320,7 @@
           <t>ОБЖ</t>
         </is>
       </c>
-      <c r="AK43" s="12" t="inlineStr">
+      <c r="AK43" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -8345,10 +8345,10 @@
       <c r="AR43" s="4" t="n"/>
       <c r="AS43" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AT43" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AT43" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -8365,7 +8365,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="BC43" s="12" t="inlineStr">
+      <c r="BC43" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -8378,7 +8378,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF43" s="12" t="inlineStr">
+      <c r="BF43" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -8391,7 +8391,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI43" s="12" t="inlineStr">
+      <c r="BI43" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -8404,7 +8404,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BL43" s="12" t="inlineStr">
+      <c r="BL43" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -8419,7 +8419,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR43" s="12" t="inlineStr">
+      <c r="BR43" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -8429,10 +8429,10 @@
       </c>
       <c r="BT43" s="3" t="inlineStr">
         <is>
-          <t>Турецкий язык</t>
-        </is>
-      </c>
-      <c r="BU43" s="12" t="inlineStr">
+          <t>Турецкий язык 2</t>
+        </is>
+      </c>
+      <c r="BU43" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -8458,7 +8458,7 @@
       <c r="CT43" s="4" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="12" t="n">
+      <c r="B44" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C44" s="3" t="n"/>
@@ -8472,7 +8472,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M44" s="12" t="inlineStr">
+      <c r="M44" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -8492,10 +8492,10 @@
       <c r="AC44" s="4" t="n"/>
       <c r="AD44" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE44" s="12" t="inlineStr">
+          <t>Информатика 2</t>
+        </is>
+      </c>
+      <c r="AE44" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -8512,7 +8512,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN44" s="12" t="inlineStr">
+      <c r="AN44" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -8543,7 +8543,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR44" s="12" t="inlineStr">
+      <c r="BR44" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -8571,7 +8571,7 @@
       <c r="CT44" s="4" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="12" t="n">
+      <c r="B45" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="n"/>
@@ -8640,7 +8640,7 @@
       <c r="CT45" s="4" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C46" s="5" t="n"/>
@@ -8741,12 +8741,12 @@
       <c r="CT46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+      <c r="A47" s="13" t="inlineStr">
         <is>
           <t>Суббота</t>
         </is>
       </c>
-      <c r="B47" s="12" t="n">
+      <c r="B47" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="n"/>
@@ -8853,7 +8853,7 @@
       <c r="AR47" s="2" t="n"/>
       <c r="AS47" s="1" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 1</t>
         </is>
       </c>
       <c r="AT47" s="7" t="inlineStr">
@@ -8869,7 +8869,7 @@
       <c r="AX47" s="2" t="n"/>
       <c r="AY47" s="1" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 2</t>
         </is>
       </c>
       <c r="AZ47" s="7" t="inlineStr">
@@ -8967,7 +8967,7 @@
       <c r="CT47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="12" t="n">
+      <c r="B48" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -8975,7 +8975,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D48" s="12" t="inlineStr">
+      <c r="D48" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -8988,7 +8988,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="G48" s="12" t="inlineStr">
+      <c r="G48" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -9001,7 +9001,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J48" s="12" t="inlineStr">
+      <c r="J48" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -9033,7 +9033,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="Y48" s="12" t="inlineStr">
+      <c r="Y48" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -9046,7 +9046,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB48" s="12" t="inlineStr">
+      <c r="AB48" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -9061,7 +9061,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH48" s="12" t="inlineStr">
+      <c r="AH48" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -9076,7 +9076,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN48" s="12" t="inlineStr">
+      <c r="AN48" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -9088,7 +9088,7 @@
       <c r="AR48" s="4" t="n"/>
       <c r="AS48" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
@@ -9103,7 +9103,7 @@
       <c r="AX48" s="4" t="n"/>
       <c r="AY48" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 1</t>
         </is>
       </c>
       <c r="AZ48" t="inlineStr">
@@ -9123,7 +9123,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI48" s="12" t="inlineStr">
+      <c r="BI48" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -9140,7 +9140,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR48" s="12" t="inlineStr">
+      <c r="BR48" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -9168,7 +9168,7 @@
       <c r="CT48" s="4" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="12" t="n">
+      <c r="B49" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -9191,7 +9191,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J49" s="12" t="inlineStr">
+      <c r="J49" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -9223,7 +9223,7 @@
           <t>Родная литература</t>
         </is>
       </c>
-      <c r="Y49" s="12" t="inlineStr">
+      <c r="Y49" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -9236,7 +9236,7 @@
           <t>Английский язык</t>
         </is>
       </c>
-      <c r="AB49" s="12" t="inlineStr">
+      <c r="AB49" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -9246,10 +9246,10 @@
       </c>
       <c r="AD49" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="AE49" s="12" t="inlineStr">
+          <t>Информатика 1</t>
+        </is>
+      </c>
+      <c r="AE49" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -9262,7 +9262,7 @@
           <t>География</t>
         </is>
       </c>
-      <c r="AH49" s="12" t="inlineStr">
+      <c r="AH49" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -9277,7 +9277,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN49" s="12" t="inlineStr">
+      <c r="AN49" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -9300,7 +9300,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF49" s="12" t="inlineStr">
+      <c r="BF49" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -9313,7 +9313,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI49" s="12" t="inlineStr">
+      <c r="BI49" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -9330,7 +9330,7 @@
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR49" s="12" t="inlineStr">
+      <c r="BR49" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -9343,7 +9343,7 @@
           <t>Турецкий язык</t>
         </is>
       </c>
-      <c r="BU49" s="12" t="inlineStr">
+      <c r="BU49" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -9369,7 +9369,7 @@
       <c r="CT49" s="4" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="12" t="n">
+      <c r="B50" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -9377,7 +9377,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D50" s="12" t="inlineStr">
+      <c r="D50" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -9392,7 +9392,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J50" s="12" t="inlineStr">
+      <c r="J50" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -9405,7 +9405,7 @@
           <t>Астрономия</t>
         </is>
       </c>
-      <c r="M50" s="12" t="inlineStr">
+      <c r="M50" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -9424,7 +9424,7 @@
           <t>Родной язык</t>
         </is>
       </c>
-      <c r="Y50" s="12" t="inlineStr">
+      <c r="Y50" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -9441,7 +9441,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH50" s="12" t="inlineStr">
+      <c r="AH50" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -9456,7 +9456,7 @@
           <t>Физ-ра</t>
         </is>
       </c>
-      <c r="AN50" s="12" t="inlineStr">
+      <c r="AN50" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -9468,7 +9468,7 @@
       <c r="AR50" s="4" t="n"/>
       <c r="AS50" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 2</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr">
@@ -9483,7 +9483,7 @@
       <c r="AX50" s="4" t="n"/>
       <c r="AY50" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 1</t>
         </is>
       </c>
       <c r="AZ50" t="inlineStr">
@@ -9514,7 +9514,7 @@
           <t>Математика</t>
         </is>
       </c>
-      <c r="BI50" s="12" t="inlineStr">
+      <c r="BI50" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -9526,17 +9526,17 @@
       <c r="BM50" s="4" t="n"/>
       <c r="BN50" s="3" t="n"/>
       <c r="BP50" s="4" t="n"/>
-      <c r="BQ50" s="12" t="inlineStr">
+      <c r="BQ50" s="11" t="inlineStr">
         <is>
           <t>Литература</t>
         </is>
       </c>
-      <c r="BR50" s="12" t="inlineStr">
+      <c r="BR50" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
       </c>
-      <c r="BS50" s="12" t="n">
+      <c r="BS50" s="11" t="n">
         <v>208</v>
       </c>
       <c r="BT50" s="3" t="inlineStr">
@@ -9544,7 +9544,7 @@
           <t>Эл. Турецкий язык</t>
         </is>
       </c>
-      <c r="BU50" s="12" t="inlineStr">
+      <c r="BU50" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -9570,7 +9570,7 @@
       <c r="CT50" s="4" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="12" t="n">
+      <c r="B51" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -9578,7 +9578,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="D51" s="12" t="inlineStr">
+      <c r="D51" s="11" t="inlineStr">
         <is>
           <t>9А</t>
         </is>
@@ -9593,7 +9593,7 @@
           <t>История</t>
         </is>
       </c>
-      <c r="J51" s="12" t="inlineStr">
+      <c r="J51" s="11" t="inlineStr">
         <is>
           <t>10А</t>
         </is>
@@ -9606,7 +9606,7 @@
           <t>Физика</t>
         </is>
       </c>
-      <c r="M51" s="12" t="inlineStr">
+      <c r="M51" s="11" t="inlineStr">
         <is>
           <t>9В</t>
         </is>
@@ -9623,7 +9623,7 @@
           <t>Алгебра</t>
         </is>
       </c>
-      <c r="V51" s="12" t="inlineStr">
+      <c r="V51" s="11" t="inlineStr">
         <is>
           <t>8Б</t>
         </is>
@@ -9640,7 +9640,7 @@
           <t>Информатика</t>
         </is>
       </c>
-      <c r="AE51" s="12" t="inlineStr">
+      <c r="AE51" s="11" t="inlineStr">
         <is>
           <t>11А</t>
         </is>
@@ -9653,7 +9653,7 @@
           <t>Биология</t>
         </is>
       </c>
-      <c r="AH51" s="12" t="inlineStr">
+      <c r="AH51" s="11" t="inlineStr">
         <is>
           <t>9Б</t>
         </is>
@@ -9680,7 +9680,7 @@
       <c r="AR51" s="4" t="n"/>
       <c r="AS51" s="3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Информатика 1</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr">
@@ -9695,7 +9695,7 @@
       <c r="AX51" s="4" t="n"/>
       <c r="AY51" s="3" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Технология 2</t>
         </is>
       </c>
       <c r="AZ51" t="inlineStr">
@@ -9713,7 +9713,7 @@
           <t>Обществознание</t>
         </is>
       </c>
-      <c r="BF51" s="12" t="inlineStr">
+      <c r="BF51" s="11" t="inlineStr">
         <is>
           <t>8А</t>
         </is>
@@ -9726,7 +9726,7 @@
           <t>Эл. Математика</t>
         </is>
       </c>
-      <c r="BI51" s="12" t="inlineStr">
+      <c r="BI51" s="11" t="inlineStr">
         <is>
           <t>10Б</t>
         </is>
@@ -9743,7 +9743,7 @@
           <t>Эл. Русский язык</t>
         </is>
       </c>
-      <c r="BR51" s="12" t="inlineStr">
+      <c r="BR51" s="11" t="inlineStr">
         <is>
           <t>11Б</t>
         </is>
@@ -9771,7 +9771,7 @@
       <c r="CT51" s="4" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="12" t="n">
+      <c r="B52" s="11" t="n">
         <v>6</v>
       </c>
       <c r="C52" s="3" t="n"/>
@@ -9840,7 +9840,7 @@
       <c r="CT52" s="4" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="12" t="n">
+      <c r="B53" s="11" t="n">
         <v>7</v>
       </c>
       <c r="C53" s="3" t="n"/>
@@ -9909,7 +9909,7 @@
       <c r="CT53" s="4" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="12" t="n">
+      <c r="B54" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C54" s="3" t="n"/>
@@ -9978,7 +9978,7 @@
       <c r="CT54" s="4" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="12" t="n">
+      <c r="B55" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C55" s="5" t="n"/>
@@ -10080,6 +10080,37 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="CR1:CT1"/>
     <mergeCell ref="BZ1:CB1"/>
@@ -10087,37 +10118,6 @@
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="CI1:CK1"/>
     <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
